--- a/data/case1/11/Qlm2_2.xlsx
+++ b/data/case1/11/Qlm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.23541004683567479</v>
+        <v>-0.27204752559465817</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23487616640037601</v>
+        <v>0.27132573398009185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14696550818501652</v>
+        <v>-0.23655335530744903</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14573320931235667</v>
+        <v>0.23376104813802367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.096018471127324645</v>
+        <v>-0.11215656413347652</v>
       </c>
       <c r="B3" s="0">
-        <v>0.095700224836255288</v>
+        <v>0.11174184728325898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.087700224936932969</v>
+        <v>-0.10374184731934122</v>
       </c>
       <c r="B4" s="0">
-        <v>0.087424937936738445</v>
+        <v>0.10337470744447508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12191471023119682</v>
+        <v>-0.10037470746621224</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12001147858518557</v>
+        <v>0.099137416619453411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.020741813610181126</v>
+        <v>0.00015926418011069643</v>
       </c>
       <c r="B6" s="0">
-        <v>0.020576900501495743</v>
+        <v>-0.00018722022942618821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.010576900646043441</v>
+        <v>0.010187220180425616</v>
       </c>
       <c r="B7" s="0">
-        <v>0.010550838746171021</v>
+        <v>-0.010189242609685234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.00055083889169615929</v>
+        <v>0.020189242561128307</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00053203909675936245</v>
+        <v>-0.020219342338518853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0014679608383545428</v>
+        <v>0.022219342317611801</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0014769242786232262</v>
+        <v>-0.022263873225557784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0034769242147394408</v>
+        <v>0.024263873206221476</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0034762510914969624</v>
+        <v>-0.024268890639364216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.02179579650693686</v>
+        <v>0.027268890616809038</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.021805645258193174</v>
+        <v>-0.027282396720417879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.025305645180627057</v>
+        <v>-0.020861923775481461</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.025453242096665551</v>
+        <v>0.020669585067941476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.02895324202710281</v>
+        <v>-0.017169585093185447</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.029074692774478272</v>
+        <v>0.017081854729313228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090785783100173489</v>
+        <v>-0.0090818547697288921</v>
       </c>
       <c r="B14" s="0">
-        <v>0.009051110973294918</v>
+        <v>0.0090530663337275996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080511110153356213</v>
+        <v>-0.0080530663514295497</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080334178889662766</v>
+        <v>0.0080344637740159541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060334179418859435</v>
+        <v>-0.0060344637952645108</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060030177349186253</v>
+        <v>0.0060035890943601622</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003017788947183</v>
+        <v>-0.004003589115957773</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999925600406</v>
+        <v>0.0039999999717243995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.081910658278200543</v>
+        <v>-0.0287723786935139</v>
       </c>
       <c r="B18" s="0">
-        <v>0.081729484608136005</v>
+        <v>0.028734492540355205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.077729484652651948</v>
+        <v>-0.012092118693931564</v>
       </c>
       <c r="B19" s="0">
-        <v>0.076332940801567162</v>
+        <v>0.012017023446798447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.07233294086816322</v>
+        <v>-0.0080170234621608216</v>
       </c>
       <c r="B20" s="0">
-        <v>0.071913659445764111</v>
+        <v>0.0080057083895184178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.067913659517651048</v>
+        <v>-0.0040057084050477698</v>
       </c>
       <c r="B21" s="0">
-        <v>0.067219395025704287</v>
+        <v>0.0039999999843525202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714738240089758</v>
+        <v>-0.11760448402537804</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501010240256434</v>
+        <v>0.11664208800202402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501010308918062</v>
+        <v>-0.090448713038565387</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099256841628517</v>
+        <v>0.089332539033468272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099257066735099</v>
+        <v>-0.020102540805486235</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999771632027</v>
+        <v>0.019999999917858169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097269665039750208</v>
+        <v>-0.097296680822610782</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097145244584803336</v>
+        <v>0.097168901145700204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094645244656751615</v>
+        <v>-0.094668901171122144</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0944841209999705</v>
+        <v>0.094504731412799359</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091984121076690073</v>
+        <v>-0.092004731439771614</v>
       </c>
       <c r="B27" s="0">
-        <v>0.09102249347689817</v>
+        <v>0.091034908390279057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.08902249356806724</v>
+        <v>-0.089034908421890435</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088364304175583719</v>
+        <v>0.088370822877638311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081364304330260317</v>
+        <v>-0.081370822930185049</v>
       </c>
       <c r="B29" s="0">
-        <v>0.08117400655722129</v>
+        <v>0.081178086086198142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021174007249431082</v>
+        <v>-0.021178086314936007</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022358839939859</v>
+        <v>0.021024913210321738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022359006764518</v>
+        <v>-0.014024913266720063</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000750695933206</v>
+        <v>0.014001499389820538</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040007508933719294</v>
+        <v>-0.004001499456268931</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998624260513</v>
+        <v>0.0039999999531623587</v>
       </c>
     </row>
   </sheetData>
